--- a/ResultadoEleicoesDistritos/BRAGANÇA_VINHAIS.xlsx
+++ b/ResultadoEleicoesDistritos/BRAGANÇA_VINHAIS.xlsx
@@ -597,61 +597,61 @@
         <v>2791</v>
       </c>
       <c r="H2" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="I2" t="n">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="J2" t="n">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="K2" t="n">
         <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="M2" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="N2" t="n">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="S2" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="T2" t="n">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="U2" t="n">
         <v>13</v>
       </c>
       <c r="V2" t="n">
-        <v>1790</v>
+        <v>1738</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1793</v>
+      </c>
+      <c r="Y2" t="n">
         <v>1</v>
       </c>
-      <c r="X2" t="n">
-        <v>1796</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>2</v>
-      </c>
       <c r="Z2" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="AA2" t="n">
         <v>14</v>
